--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Surface_Freshwater_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Surface_Freshwater_mass_flows.xlsx
@@ -481,25 +481,25 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>8.015315006646617E-06</v>
+        <v>8.433726643683042E-33</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1403184622564504</v>
+        <v>1.476432994525518E-28</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.005781827605625981</v>
+        <v>6.083647802527324E-30</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.007010258337128483</v>
+        <v>7.37620448702451E-30</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -519,25 +519,25 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>7.466257162664044E-08</v>
+        <v>1.437235641732149E-33</v>
       </c>
       <c r="D3">
-        <v>7.377761768888438E-08</v>
+        <v>1.420200501997149E-33</v>
       </c>
       <c r="E3">
-        <v>0.03394281940874085</v>
+        <v>6.533906986096025E-28</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>5.38576609128856E-05</v>
+        <v>1.036746366457919E-30</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6.530047974197914E-05</v>
+        <v>1.257017738107122E-30</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -557,25 +557,25 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>4.6943629332497E-11</v>
+        <v>9.402449253602028E-34</v>
       </c>
       <c r="D4">
-        <v>4.638722002693364E-10</v>
+        <v>9.291004733138208E-33</v>
       </c>
       <c r="E4">
-        <v>0.01780276361898049</v>
+        <v>3.565757140670418E-25</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.386267061966155E-08</v>
+        <v>6.782433455190891E-31</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.105727206358257E-08</v>
+        <v>8.223456996366696E-31</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -595,25 +595,25 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4.796734591827445E-15</v>
+        <v>4.553004289116487E-34</v>
       </c>
       <c r="D5">
-        <v>4.739880279513699E-13</v>
+        <v>4.499038841818176E-32</v>
       </c>
       <c r="E5">
-        <v>0.004817727624451962</v>
+        <v>4.572930629786626E-22</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.460112604045E-12</v>
+        <v>3.284298354527268E-31</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.195262274217125E-12</v>
+        <v>3.982093810448267E-31</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -633,25 +633,25 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1.619482772848263E-14</v>
+        <v>2.870745593686062E-32</v>
       </c>
       <c r="D6">
-        <v>1.600287510406368E-11</v>
+        <v>2.836719473742963E-29</v>
       </c>
       <c r="E6">
-        <v>118.928495395554</v>
+        <v>2.108163543598796E-16</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.168209882596648E-11</v>
+        <v>2.070805215832363E-29</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.416412530359834E-11</v>
+        <v>2.510776958263575E-29</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>6.172066439652445E-06</v>
+        <v>4.506114953801109E-25</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.150807995047603E-09</v>
+        <v>8.401842666699947E-29</v>
       </c>
       <c r="G7">
-        <v>0.04452204822261892</v>
+        <v>3.25047484876223E-21</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0539813846118401</v>
+        <v>3.941084024364442E-21</v>
       </c>
       <c r="J7">
-        <v>0.04192271347960974</v>
+        <v>3.060702083515264E-21</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>2.128216519945597E-06</v>
+        <v>1.414553556389631E-25</v>
       </c>
       <c r="D8">
-        <v>2.103692146648884E-07</v>
+        <v>1.398253034736891E-26</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>9.673153521427855E-09</v>
+        <v>6.429418053567421E-28</v>
       </c>
       <c r="G8">
-        <v>0.0153518370963174</v>
+        <v>1.020384700437583E-21</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01861355117021786</v>
+        <v>1.237179805631107E-21</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -747,25 +747,25 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>1.116113707828776E-06</v>
+        <v>9.402409122495156E-26</v>
       </c>
       <c r="D9">
-        <v>1.102885101431389E-06</v>
+        <v>9.290968174681108E-26</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.232675734274929E-06</v>
+        <v>3.565707387818932E-25</v>
       </c>
       <c r="G9">
-        <v>0.008051058556763843</v>
+        <v>6.782404506716456E-22</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.009761619373663901</v>
+        <v>8.223421897381032E-22</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1.855035746890276E-07</v>
+        <v>4.553004452355377E-26</v>
       </c>
       <c r="D10">
-        <v>1.833048543563315E-06</v>
+        <v>4.499039004621923E-25</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.001863154286767297</v>
+        <v>4.572930617265496E-22</v>
       </c>
       <c r="G10">
-        <v>0.001338125436355178</v>
+        <v>3.284298472279237E-22</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001622429037352275</v>
+        <v>3.982093953218299E-22</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -823,25 +823,25 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>1.61912869385269E-06</v>
+        <v>2.87074559383929E-24</v>
       </c>
       <c r="D11">
-        <v>0.0001599937628207589</v>
+        <v>2.83671947389532E-22</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>118.902493209476</v>
+        <v>2.108163543599485E-16</v>
       </c>
       <c r="G11">
-        <v>0.0116795446859115</v>
+        <v>2.070805215942893E-20</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01416102850050494</v>
+        <v>2.510776958397588E-20</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>8.80231855284328E-11</v>
+        <v>1.331363849080941E-33</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.005715622333150387</v>
+        <v>8.644964282618561E-26</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.849288953082994E-07</v>
+        <v>5.822107125566287E-30</v>
       </c>
       <c r="J12">
-        <v>6.582460264534145E-05</v>
+        <v>9.956069621431432E-28</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>2.4724481012544E-13</v>
+        <v>1.436845677993276E-34</v>
       </c>
       <c r="D13">
-        <v>1.832357165000886E-12</v>
+        <v>1.064861370289541E-33</v>
       </c>
       <c r="E13">
-        <v>5.34960935988122E-05</v>
+        <v>3.108887536930672E-26</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.081211399711886E-09</v>
+        <v>6.283383363577566E-31</v>
       </c>
       <c r="J13">
-        <v>3.627515632932579E-07</v>
+        <v>2.108104981612279E-28</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>2.718978450460014E-18</v>
+        <v>1.413718963806574E-35</v>
       </c>
       <c r="D14">
-        <v>8.060253548142371E-17</v>
+        <v>4.190887681426907E-34</v>
       </c>
       <c r="E14">
-        <v>4.88549812533334E-08</v>
+        <v>2.540189807777508E-25</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.189020103077925E-14</v>
+        <v>6.18224932155721E-32</v>
       </c>
       <c r="J14">
-        <v>2.620067933536155E-11</v>
+        <v>1.362290945511132E-28</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>5.358362203843861E-20</v>
+        <v>1.590368346253297E-34</v>
       </c>
       <c r="D15">
-        <v>1.350187025744494E-17</v>
+        <v>4.007371330227641E-32</v>
       </c>
       <c r="E15">
-        <v>2.955206502551271E-07</v>
+        <v>8.771088439911679E-22</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.343233128186567E-16</v>
+        <v>6.954744104992948E-31</v>
       </c>
       <c r="J15">
-        <v>1.341188689881307E-12</v>
+        <v>3.980664161168591E-27</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1013,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.655623176393109E-15</v>
+        <v>1.73529450218752E-30</v>
       </c>
       <c r="D16">
-        <v>6.573487835318905E-12</v>
+        <v>4.295390024543481E-27</v>
       </c>
       <c r="E16">
-        <v>171.018088966642</v>
+        <v>1.117503236891844E-13</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.1613145894543E-11</v>
+        <v>7.588511955703359E-27</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.670856905766604E-08</v>
+        <v>2.987329637901332E-25</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.340654391478529E-09</v>
+        <v>7.760667874548491E-26</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0002922689512286426</v>
+        <v>5.225484583571057E-21</v>
       </c>
       <c r="J17">
-        <v>0.04999139595135405</v>
+        <v>8.93797537360159E-19</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1089,16 +1089,16 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>2.618645328346716E-09</v>
+        <v>3.354521374263839E-26</v>
       </c>
       <c r="D18">
-        <v>7.762917676643099E-10</v>
+        <v>9.944406365787149E-27</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.266554155383532E-09</v>
+        <v>2.903487646019201E-26</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.580576117046542E-05</v>
+        <v>5.867782217294848E-22</v>
       </c>
       <c r="J18">
-        <v>0.01536938214989606</v>
+        <v>1.968839398484176E-19</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1127,16 +1127,16 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>2.089507135481738E-10</v>
+        <v>3.515839841579076E-27</v>
       </c>
       <c r="D19">
-        <v>2.477689449671039E-10</v>
+        <v>4.169001930785562E-27</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.501786593504584E-08</v>
+        <v>2.526931375027546E-25</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.654999162192282E-06</v>
+        <v>6.149963049736656E-23</v>
       </c>
       <c r="J19">
-        <v>0.008054010452836545</v>
+        <v>1.355181341749697E-19</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1165,16 +1165,16 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>1.339579358911803E-11</v>
+        <v>3.975929755170759E-26</v>
       </c>
       <c r="D20">
-        <v>1.350175745587704E-10</v>
+        <v>4.007380291342228E-25</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.955182029046999E-07</v>
+        <v>8.771108693984774E-22</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.34321355087591E-07</v>
+        <v>6.95475965471356E-22</v>
       </c>
       <c r="J20">
-        <v>0.001341177712951935</v>
+        <v>3.980673739426102E-18</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>6.639057941385773E-07</v>
+        <v>4.338236255732394E-22</v>
       </c>
       <c r="D21">
-        <v>6.573487835720102E-05</v>
+        <v>4.295390024805895E-20</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>171.0180889666485</v>
+        <v>1.117503236891952E-13</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01161314589524794</v>
+        <v>7.588511956164443E-18</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>9.412056139192987E-15</v>
+        <v>6.871573293890415E-34</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05815936094106713</v>
+        <v>2.096910438516114E-29</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01293789486218174</v>
+        <v>3.172366062988177E-30</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.006760487146011095</v>
+        <v>1.380861982386761E-30</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.001122242646594011</v>
+        <v>2.291897590323544E-31</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0.003135562043866197</v>
+        <v>6.313912933249146E-31</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3.381164009545959E-21</v>
+        <v>3.811874689118481E-21</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>9.983981555578947E-22</v>
+        <v>8.385549295963613E-22</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>6.051684597819321E-22</v>
+        <v>5.573746730425661E-22</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>2.246399520579939E-22</v>
+        <v>2.698745507937039E-22</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1.140655032725175E-20</v>
+        <v>1.615518470865224E-20</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1.388862107958182E-26</v>
+        <v>2.59463656317397E-27</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>4.482289739220405E-28</v>
+        <v>6.153469801912532E-28</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2.859431328790785E-28</v>
+        <v>3.919523913078316E-28</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>4.279668477492034E-28</v>
+        <v>5.72638436643636E-28</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1.27494724341525E-28</v>
+        <v>1.776100409646976E-28</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>2.365052120324037E-19</v>
+        <v>3.288176281641159E-19</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>5.19623288235228E-20</v>
+        <v>7.217031566299576E-20</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3.576511891505093E-20</v>
+        <v>4.96082939467926E-20</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1.066910506342333E-18</v>
+        <v>1.422700202928972E-18</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1.934832531148576E-18</v>
+        <v>2.695371803750808E-18</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.09189592974318077</v>
+        <v>3.313267739150016E-29</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0.02044279472885655</v>
+        <v>5.012564170700179E-30</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.01068205086415988</v>
+        <v>2.181860214162712E-30</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.001773223256540003</v>
+        <v>3.621361317094852E-31</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.004954411200984311</v>
+        <v>9.976431823354519E-31</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>5.342479787325287E-21</v>
+        <v>6.023033316614253E-21</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1.577540146148417E-21</v>
+        <v>1.324976472387133E-21</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>9.562092389436935E-22</v>
+        <v>8.806916542024883E-22</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>3.549471128603179E-22</v>
+        <v>4.264209984071335E-22</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1.802316137117359E-20</v>
+        <v>2.552634167488112E-20</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>2.194500981969512E-26</v>
+        <v>4.09971044145638E-27</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>7.082336812148967E-28</v>
+        <v>9.722920256402719E-28</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4.518105017733481E-28</v>
+        <v>6.193126752337267E-28</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>6.762180797176025E-28</v>
+        <v>9.048094870810476E-28</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>2.014507388172139E-28</v>
+        <v>2.806365060082766E-28</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>3.736950681223745E-19</v>
+        <v>5.19555255889208E-19</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>8.210417792755917E-20</v>
+        <v>1.140342354248047E-19</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>5.651143344584561E-20</v>
+        <v>7.838463527535912E-20</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1.685794536711729E-18</v>
+        <v>2.247967580428696E-18</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>3.057173109715188E-18</v>
+        <v>4.258879291335796E-18</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0.003063197658106027</v>
+        <v>1.104422579716672E-30</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.0006814264909618852</v>
+        <v>1.670854723566727E-31</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.0003560683621386628</v>
+        <v>7.272867380542371E-32</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>5.91074418846668E-05</v>
+        <v>1.207120439031618E-32</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.0001651470400328104</v>
+        <v>3.325477274451507E-32</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1.780826595775096E-22</v>
+        <v>2.007677772204751E-22</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>5.258467153828056E-23</v>
+        <v>4.416588241290444E-23</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>3.187364129812312E-23</v>
+        <v>2.935638847341629E-23</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1.183157042867726E-23</v>
+        <v>1.421403328023779E-23</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>6.007720457057862E-22</v>
+        <v>8.508780558293708E-22</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>7.315003273231707E-28</v>
+        <v>1.366570147152127E-28</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>2.360778937382989E-29</v>
+        <v>3.240973418800907E-29</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1.506035005911161E-29</v>
+        <v>2.064375584112423E-29</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>2.254060265725341E-29</v>
+        <v>3.016031623603492E-29</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>6.715024627240462E-30</v>
+        <v>9.354550200275888E-30</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1.245650227074582E-20</v>
+        <v>1.731850852964027E-20</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>2.736805930918639E-21</v>
+        <v>3.801141180826823E-21</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1.883714448194853E-21</v>
+        <v>2.612821175845304E-21</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>5.619315122372429E-20</v>
+        <v>7.493225268095654E-20</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>1.019057703238396E-19</v>
+        <v>1.419626430445265E-19</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>2.711614115668714E-18</v>
+        <v>1.996171035920316E-30</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>6.032137000456783E-19</v>
+        <v>1.247762968593766E-31</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>3.151995357776488E-19</v>
+        <v>4.937021608066122E-33</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>5.232320594604361E-20</v>
+        <v>2.441052400954396E-33</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.01774706583491885</v>
+        <v>3.573631359695709E-30</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.274845537422659E-22</v>
+        <v>1.813497867506498E-23</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>7.277682115560562E-23</v>
+        <v>7.335421379988738E-24</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>3.877523211983887E-23</v>
+        <v>4.889677969918797E-24</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>7.587152994328728E-24</v>
+        <v>2.441495392074335E-24</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>2.52061055900097E-21</v>
+        <v>3.56996006601156E-21</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>2.066513955586916E-27</v>
+        <v>5.084783709905169E-31</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.861337439916174E-31</v>
+        <v>3.673980366437109E-32</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>4.067100150853483E-34</v>
+        <v>5.423411544436765E-34</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.750639175156165E-28</v>
+        <v>2.332863876995667E-28</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>3.696579700504277E-28</v>
+        <v>5.149622272033073E-28</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.030044770387825E-23</v>
+        <v>1.346175663746884E-23</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.270427321341769E-24</v>
+        <v>1.515267387754151E-24</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.452492826270195E-25</v>
+        <v>1.791433851588627E-25</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.750692525298945E-19</v>
+        <v>2.332934970160521E-19</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>3.69669220988772E-19</v>
+        <v>5.149779006331733E-19</v>
       </c>
       <c r="G101">
         <v>0</v>
